--- a/03_report/my_inv_analysis/month_end_closing_20201222.xlsx
+++ b/03_report/my_inv_analysis/month_end_closing_20201222.xlsx
@@ -503,8 +503,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>700125.55</v>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>700,125.55</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -538,8 +540,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G3" t="n">
-        <v>651111.14</v>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>651,111.14</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -573,8 +577,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G4" t="n">
-        <v>639754.74</v>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>639,754.74</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -608,8 +614,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G5" t="n">
-        <v>492229.23</v>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>492,229.23</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -643,8 +651,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G6" t="n">
-        <v>440149.4</v>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>440,149.4</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -678,8 +688,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G7" t="n">
-        <v>333302.32</v>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>333,302.32</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -713,8 +725,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G8" t="n">
-        <v>327753.54</v>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>327,753.54</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -748,8 +762,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G9" t="n">
-        <v>281601.31</v>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>281,601.31</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -783,8 +799,10 @@
           <t>convertible_bond</t>
         </is>
       </c>
-      <c r="G10" t="n">
-        <v>259726.93</v>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>259,726.93</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -818,8 +836,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G11" t="n">
-        <v>259057.77</v>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>259,057.77</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -853,8 +873,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G12" t="n">
-        <v>246229.89</v>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>246,229.89</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -888,8 +910,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G13" t="n">
-        <v>242566.8</v>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>242,566.8</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -923,8 +947,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G14" t="n">
-        <v>235809.16</v>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>235,809.16</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -958,8 +984,10 @@
           <t>convertible_bond</t>
         </is>
       </c>
-      <c r="G15" t="n">
-        <v>207725.13</v>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>207,725.13</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -993,8 +1021,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G16" t="n">
-        <v>197870.4</v>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>197,870.4</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -1028,8 +1058,10 @@
           <t>oversea</t>
         </is>
       </c>
-      <c r="G17" t="n">
-        <v>160970.4</v>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>160,970.4</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -1063,8 +1095,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G18" t="n">
-        <v>91103.2</v>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>91,103.2</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -1098,8 +1132,10 @@
           <t>oversea</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>80085</v>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>80,085.0</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -1133,8 +1169,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G20" t="n">
-        <v>72097</v>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>72,097.0</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -1168,8 +1206,10 @@
           <t>oversea</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>70350.97</v>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>70,350.97</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -1203,8 +1243,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G22" t="n">
-        <v>42902.46</v>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>42,902.46</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -1238,8 +1280,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G23" t="n">
-        <v>28600</v>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>28,600.0</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -1273,8 +1317,10 @@
           <t>oversea</t>
         </is>
       </c>
-      <c r="G24" t="n">
-        <v>18564</v>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>18,564.0</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1308,8 +1354,10 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G25" t="n">
-        <v>0</v>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -1339,7 +1387,11 @@
           <t>fix_return</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr"/>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1368,7 +1420,11 @@
           <t>fix_return</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr"/>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1397,7 +1453,11 @@
           <t>fix_return</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1426,7 +1486,11 @@
           <t>insurance</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr"/>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1455,7 +1519,11 @@
           <t>trust</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1484,7 +1552,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr"/>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1513,7 +1585,11 @@
           <t>oversea</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1542,7 +1618,11 @@
           <t>A</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1571,7 +1651,11 @@
           <t>bond</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr"/>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1672,30 +1756,50 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="n">
-        <v>6079686.34</v>
-      </c>
-      <c r="G2" t="n">
-        <v>5591252.279999999</v>
-      </c>
-      <c r="H2" t="n">
-        <v>4929830.43</v>
-      </c>
-      <c r="I2" t="n">
-        <v>4929830.43</v>
-      </c>
-      <c r="J2" t="n">
-        <v>661421.85</v>
-      </c>
-      <c r="K2" t="n">
-        <v>0.3471554264966057</v>
-      </c>
-      <c r="L2" t="n">
-        <v>1149855.91</v>
-      </c>
-      <c r="M2" t="n">
-        <v>23.3245</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6,079,686.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>5,591,252.28</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>4,929,830.43</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>4,929,830.43</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>661,421.85</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1,149,855.91</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>23.32</t>
+        </is>
       </c>
     </row>
     <row r="3">
@@ -1715,32 +1819,50 @@
       <c r="D3" t="n">
         <v>1.047</v>
       </c>
-      <c r="E3" t="n">
-        <v>623997.8199999999</v>
-      </c>
-      <c r="F3" t="n">
-        <v>700125.55</v>
-      </c>
-      <c r="G3" t="n">
-        <v>653308.6</v>
-      </c>
-      <c r="H3" t="n">
-        <v>653308.6</v>
-      </c>
-      <c r="I3" t="n">
-        <v>653308.6</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L3" t="n">
-        <v>46816.95</v>
-      </c>
-      <c r="M3" t="n">
-        <v>7.1661</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>623,997.82</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>700,125.55</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>653,308.6</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>653,308.6</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>653,308.6</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>46,816.95</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -1760,32 +1882,50 @@
       <c r="D4" t="n">
         <v>1.0361</v>
       </c>
-      <c r="E4" t="n">
-        <v>514793.75</v>
-      </c>
-      <c r="F4" t="n">
-        <v>651111.14</v>
-      </c>
-      <c r="G4" t="n">
-        <v>533396.7</v>
-      </c>
-      <c r="H4" t="n">
-        <v>533396.7</v>
-      </c>
-      <c r="I4" t="n">
-        <v>533396.7</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L4" t="n">
-        <v>117714.44</v>
-      </c>
-      <c r="M4" t="n">
-        <v>22.0688</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>514,793.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>651,111.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>533,396.7</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>533,396.7</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>533,396.7</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>117,714.44</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>22.07</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -1805,32 +1945,50 @@
       <c r="D5" t="n">
         <v>0.778</v>
       </c>
-      <c r="E5" t="n">
-        <v>504976.51</v>
-      </c>
-      <c r="F5" t="n">
-        <v>639754.74</v>
-      </c>
-      <c r="G5" t="n">
-        <v>496666</v>
-      </c>
-      <c r="H5" t="n">
-        <v>480892</v>
-      </c>
-      <c r="I5" t="n">
-        <v>392871.1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>103794.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0.3611359223910801</v>
-      </c>
-      <c r="L5" t="n">
-        <v>246883.64</v>
-      </c>
-      <c r="M5" t="n">
-        <v>51.3387</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>504,976.51</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>639,754.74</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>496,666.0</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>480,892.0</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>392,871.1</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>103,794.9</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>246,883.64</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>51.34</t>
+        </is>
       </c>
     </row>
     <row r="6">
@@ -1850,32 +2008,50 @@
       <c r="D6" t="n">
         <v>2.3908</v>
       </c>
-      <c r="E6" t="n">
-        <v>191588.52</v>
-      </c>
-      <c r="F6" t="n">
-        <v>492229.23</v>
-      </c>
-      <c r="G6" t="n">
-        <v>856895.5</v>
-      </c>
-      <c r="H6" t="n">
-        <v>696985</v>
-      </c>
-      <c r="I6" t="n">
-        <v>458041.87</v>
-      </c>
-      <c r="J6" t="n">
-        <v>398853.63</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.521090269923864</v>
-      </c>
-      <c r="L6" t="n">
-        <v>34187.36</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4.905</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>191,588.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>492,229.23</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>856,895.5</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>696,985.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>458,041.87</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>398,853.63</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>34,187.36</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>4.91</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -1895,32 +2071,50 @@
       <c r="D7" t="n">
         <v>0.6315</v>
       </c>
-      <c r="E7" t="n">
-        <v>512337.8</v>
-      </c>
-      <c r="F7" t="n">
-        <v>440149.4</v>
-      </c>
-      <c r="G7" t="n">
-        <v>323557.7</v>
-      </c>
-      <c r="H7" t="n">
-        <v>323557.7</v>
-      </c>
-      <c r="I7" t="n">
-        <v>323557.7</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L7" t="n">
-        <v>116591.7</v>
-      </c>
-      <c r="M7" t="n">
-        <v>36.0343</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>512,337.8</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>440,149.4</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>323,557.7</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>323,557.7</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>323,557.7</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>116,591.7</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>36.03</t>
+        </is>
       </c>
     </row>
     <row r="8">
@@ -1940,32 +2134,50 @@
       <c r="D8" t="n">
         <v>2.3549</v>
       </c>
-      <c r="E8" t="n">
-        <v>96246.7</v>
-      </c>
-      <c r="F8" t="n">
-        <v>333302.32</v>
-      </c>
-      <c r="G8" t="n">
-        <v>226649.6</v>
-      </c>
-      <c r="H8" t="n">
-        <v>226649.6</v>
-      </c>
-      <c r="I8" t="n">
-        <v>226649.6</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L8" t="n">
-        <v>106652.72</v>
-      </c>
-      <c r="M8" t="n">
-        <v>47.0562</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>96,246.7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>333,302.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>226,649.6</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>226,649.6</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>226,649.6</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>106,652.72</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>47.06</t>
+        </is>
       </c>
     </row>
     <row r="9">
@@ -1985,32 +2197,50 @@
       <c r="D9" t="n">
         <v>2.4883</v>
       </c>
-      <c r="E9" t="n">
-        <v>87940.31</v>
-      </c>
-      <c r="F9" t="n">
-        <v>327753.54</v>
-      </c>
-      <c r="G9" t="n">
-        <v>218819.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>218819.8</v>
-      </c>
-      <c r="I9" t="n">
-        <v>218819.8</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L9" t="n">
-        <v>108933.74</v>
-      </c>
-      <c r="M9" t="n">
-        <v>49.7824</v>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87,940.31</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>327,753.54</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>218,819.8</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>218,819.8</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>218,819.8</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>108,933.74</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>49.78</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -2030,32 +2260,50 @@
       <c r="D10" t="n">
         <v>1.662</v>
       </c>
-      <c r="E10" t="n">
-        <v>146453.77</v>
-      </c>
-      <c r="F10" t="n">
-        <v>281601.31</v>
-      </c>
-      <c r="G10" t="n">
-        <v>243400</v>
-      </c>
-      <c r="H10" t="n">
-        <v>243400</v>
-      </c>
-      <c r="I10" t="n">
-        <v>243400</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L10" t="n">
-        <v>38201.31</v>
-      </c>
-      <c r="M10" t="n">
-        <v>15.6949</v>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>146,453.77</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>281,601.31</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>243,400.0</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>243,400.0</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>243,400.0</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>38,201.31</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>15.69</t>
+        </is>
       </c>
     </row>
     <row r="11">
@@ -2075,32 +2323,50 @@
       <c r="D11" t="n">
         <v>0.9431</v>
       </c>
-      <c r="E11" t="n">
-        <v>224231.14</v>
-      </c>
-      <c r="F11" t="n">
-        <v>259726.93</v>
-      </c>
-      <c r="G11" t="n">
-        <v>211467.6</v>
-      </c>
-      <c r="H11" t="n">
-        <v>211467.6</v>
-      </c>
-      <c r="I11" t="n">
-        <v>211467.6</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L11" t="n">
-        <v>48259.33</v>
-      </c>
-      <c r="M11" t="n">
-        <v>22.8211</v>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>224,231.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>259,726.93</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>211,467.6</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>211,467.6</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>211,467.6</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>48,259.33</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>22.82</t>
+        </is>
       </c>
     </row>
     <row r="12">
@@ -2120,32 +2386,50 @@
       <c r="D12" t="n">
         <v>1.1181</v>
       </c>
-      <c r="E12" t="n">
-        <v>237406.31</v>
-      </c>
-      <c r="F12" t="n">
-        <v>259057.77</v>
-      </c>
-      <c r="G12" t="n">
-        <v>265444</v>
-      </c>
-      <c r="H12" t="n">
-        <v>265444</v>
-      </c>
-      <c r="I12" t="n">
-        <v>265444</v>
-      </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
-        <v>182.5</v>
-      </c>
-      <c r="L12" t="n">
-        <v>-6386.23</v>
-      </c>
-      <c r="M12" t="n">
-        <v>-2.4059</v>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>237,406.31</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>259,057.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>265,444.0</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>265,444.0</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>265,444.0</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>182.5</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>-6,386.23</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>-2.41</t>
+        </is>
       </c>
     </row>
     <row r="13">
@@ -2165,32 +2449,50 @@
       <c r="D13" t="n">
         <v>1.9179</v>
       </c>
-      <c r="E13" t="n">
-        <v>49118.27</v>
-      </c>
-      <c r="F13" t="n">
-        <v>246229.89</v>
-      </c>
-      <c r="G13" t="n">
-        <v>222919.2</v>
-      </c>
-      <c r="H13" t="n">
-        <v>185038.68</v>
-      </c>
-      <c r="I13" t="n">
-        <v>94205.80000000002</v>
-      </c>
-      <c r="J13" t="n">
-        <v>128713.4</v>
-      </c>
-      <c r="K13" t="n">
-        <v>0.5496169525426817</v>
-      </c>
-      <c r="L13" t="n">
-        <v>152024.09</v>
-      </c>
-      <c r="M13" t="n">
-        <v>82.158</v>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>49,118.27</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>246,229.89</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>222,919.2</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>185,038.68</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>94,205.8</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>128,713.4</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>152,024.09</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>82.16</t>
+        </is>
       </c>
     </row>
     <row r="14">
@@ -2210,32 +2512,50 @@
       <c r="D14" t="n">
         <v>0.8798</v>
       </c>
-      <c r="E14" t="n">
-        <v>281400</v>
-      </c>
-      <c r="F14" t="n">
-        <v>242566.8</v>
-      </c>
-      <c r="G14" t="n">
-        <v>247576.56</v>
-      </c>
-      <c r="H14" t="n">
-        <v>247576.56</v>
-      </c>
-      <c r="I14" t="n">
-        <v>247576.56</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0.2887658227848101</v>
-      </c>
-      <c r="L14" t="n">
-        <v>-5009.76</v>
-      </c>
-      <c r="M14" t="n">
-        <v>-2.0235</v>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>281,400.0</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>242,566.8</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>247,576.56</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>247,576.56</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>247,576.56</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>-5,009.76</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>-2.02</t>
+        </is>
       </c>
     </row>
     <row r="15">
@@ -2255,32 +2575,50 @@
       <c r="D15" t="n">
         <v>1.0786</v>
       </c>
-      <c r="E15" t="n">
-        <v>207779.68</v>
-      </c>
-      <c r="F15" t="n">
-        <v>235809.16</v>
-      </c>
-      <c r="G15" t="n">
-        <v>224108.9</v>
-      </c>
-      <c r="H15" t="n">
-        <v>224108.9</v>
-      </c>
-      <c r="I15" t="n">
-        <v>224108.9</v>
-      </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L15" t="n">
-        <v>11700.26</v>
-      </c>
-      <c r="M15" t="n">
-        <v>5.2208</v>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>207,779.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>235,809.16</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>224,108.9</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>224,108.9</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>224,108.9</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>11,700.26</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
       </c>
     </row>
     <row r="16">
@@ -2300,32 +2638,50 @@
       <c r="D16" t="n">
         <v>1.6937</v>
       </c>
-      <c r="E16" t="n">
-        <v>104594.73</v>
-      </c>
-      <c r="F16" t="n">
-        <v>207725.13</v>
-      </c>
-      <c r="G16" t="n">
-        <v>177157.2</v>
-      </c>
-      <c r="H16" t="n">
-        <v>177157.2</v>
-      </c>
-      <c r="I16" t="n">
-        <v>177157.2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
-        <v>0.2892234548335974</v>
-      </c>
-      <c r="L16" t="n">
-        <v>30567.93</v>
-      </c>
-      <c r="M16" t="n">
-        <v>17.2547</v>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>104,594.73</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>207,725.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>177,157.2</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>177,157.2</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>177,157.2</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>30,567.93</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
       </c>
     </row>
     <row r="17">
@@ -2345,32 +2701,50 @@
       <c r="D17" t="n">
         <v>1.6205</v>
       </c>
-      <c r="E17" t="n">
-        <v>72800</v>
-      </c>
-      <c r="F17" t="n">
-        <v>197870.4</v>
-      </c>
-      <c r="G17" t="n">
-        <v>117972.4</v>
-      </c>
-      <c r="H17" t="n">
-        <v>117972.4</v>
-      </c>
-      <c r="I17" t="n">
-        <v>117972.4</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0.2887658227848102</v>
-      </c>
-      <c r="L17" t="n">
-        <v>79898</v>
-      </c>
-      <c r="M17" t="n">
-        <v>67.726</v>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>72,800.0</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>197,870.4</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>117,972.4</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>117,972.4</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>117,972.4</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>79,898.0</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>67.73</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -2390,32 +2764,50 @@
       <c r="D18" t="n">
         <v>1.2144</v>
       </c>
-      <c r="E18" t="n">
-        <v>142200</v>
-      </c>
-      <c r="F18" t="n">
-        <v>160970.4</v>
-      </c>
-      <c r="G18" t="n">
-        <v>172687.68</v>
-      </c>
-      <c r="H18" t="n">
-        <v>172687.68</v>
-      </c>
-      <c r="I18" t="n">
-        <v>172687.68</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0.2887658227848101</v>
-      </c>
-      <c r="L18" t="n">
-        <v>-11717.28</v>
-      </c>
-      <c r="M18" t="n">
-        <v>-6.7852</v>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>142,200.0</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>160,970.4</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>172,687.68</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>172,687.68</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>172,687.68</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>-11,717.28</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>-6.79</t>
+        </is>
       </c>
     </row>
     <row r="19">
@@ -2435,32 +2827,50 @@
       <c r="D19" t="n">
         <v>2.921</v>
       </c>
-      <c r="E19" t="n">
-        <v>26300</v>
-      </c>
-      <c r="F19" t="n">
-        <v>91103.2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>76822.3</v>
-      </c>
-      <c r="H19" t="n">
-        <v>76822.3</v>
-      </c>
-      <c r="I19" t="n">
-        <v>76822.3</v>
-      </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0.2887658227848101</v>
-      </c>
-      <c r="L19" t="n">
-        <v>14280.9</v>
-      </c>
-      <c r="M19" t="n">
-        <v>18.5895</v>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26,300.0</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>91,103.2</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>76,822.3</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>76,822.3</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>76,822.3</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>14,280.9</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>18.59</t>
+        </is>
       </c>
     </row>
     <row r="20">
@@ -2480,32 +2890,50 @@
       <c r="D20" t="n">
         <v>0.3088</v>
       </c>
-      <c r="E20" t="n">
-        <v>285000</v>
-      </c>
-      <c r="F20" t="n">
-        <v>80085</v>
-      </c>
-      <c r="G20" t="n">
-        <v>88009.94</v>
-      </c>
-      <c r="H20" t="n">
-        <v>88009.94</v>
-      </c>
-      <c r="I20" t="n">
-        <v>88009.94</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0.3778467908902691</v>
-      </c>
-      <c r="L20" t="n">
-        <v>-7924.94</v>
-      </c>
-      <c r="M20" t="n">
-        <v>-9.0046</v>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>285,000.0</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>80,085.0</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>88,009.94</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>88,009.94</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>88,009.94</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>-7,924.94</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>-9.0</t>
+        </is>
       </c>
     </row>
     <row r="21">
@@ -2525,32 +2953,50 @@
       <c r="D21" t="n">
         <v>1.1314</v>
       </c>
-      <c r="E21" t="n">
-        <v>57016.21</v>
-      </c>
-      <c r="F21" t="n">
-        <v>72097</v>
-      </c>
-      <c r="G21" t="n">
-        <v>64507.2</v>
-      </c>
-      <c r="H21" t="n">
-        <v>64507.2</v>
-      </c>
-      <c r="I21" t="n">
-        <v>64507.2</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L21" t="n">
-        <v>7589.8</v>
-      </c>
-      <c r="M21" t="n">
-        <v>11.7658</v>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>57,016.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>72,097.0</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>64,507.2</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>64,507.2</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>64,507.2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>7,589.8</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
       </c>
     </row>
     <row r="22">
@@ -2570,32 +3016,50 @@
       <c r="D22" t="n">
         <v>1.0481</v>
       </c>
-      <c r="E22" t="n">
-        <v>53744.06</v>
-      </c>
-      <c r="F22" t="n">
-        <v>70350.97</v>
-      </c>
-      <c r="G22" t="n">
-        <v>56331.5</v>
-      </c>
-      <c r="H22" t="n">
-        <v>56331.5</v>
-      </c>
-      <c r="I22" t="n">
-        <v>56331.5</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L22" t="n">
-        <v>14019.47</v>
-      </c>
-      <c r="M22" t="n">
-        <v>24.8874</v>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>53,744.06</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>70,350.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>56,331.5</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>56,331.5</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>56,331.5</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>14,019.47</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>24.89</t>
+        </is>
       </c>
     </row>
     <row r="23">
@@ -2615,32 +3079,50 @@
       <c r="D23" t="n">
         <v>1.7805</v>
       </c>
-      <c r="E23" t="n">
-        <v>20094.83</v>
-      </c>
-      <c r="F23" t="n">
-        <v>42902.46</v>
-      </c>
-      <c r="G23" t="n">
-        <v>35777.9</v>
-      </c>
-      <c r="H23" t="n">
-        <v>35777.9</v>
-      </c>
-      <c r="I23" t="n">
-        <v>35777.9</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0.2892234548335975</v>
-      </c>
-      <c r="L23" t="n">
-        <v>7124.56</v>
-      </c>
-      <c r="M23" t="n">
-        <v>19.9133</v>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>20,094.83</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>42,902.46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>35,777.9</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>35,777.9</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>35,777.9</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>7,124.56</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>19.91</t>
+        </is>
       </c>
     </row>
     <row r="24">
@@ -2660,32 +3142,50 @@
       <c r="D24" t="n">
         <v>1.5175</v>
       </c>
-      <c r="E24" t="n">
-        <v>20800</v>
-      </c>
-      <c r="F24" t="n">
-        <v>28600</v>
-      </c>
-      <c r="G24" t="n">
-        <v>31564</v>
-      </c>
-      <c r="H24" t="n">
-        <v>31564</v>
-      </c>
-      <c r="I24" t="n">
-        <v>31564</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0.2887658227848101</v>
-      </c>
-      <c r="L24" t="n">
-        <v>-2964</v>
-      </c>
-      <c r="M24" t="n">
-        <v>-9.3904</v>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>20,800.0</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>28,600.0</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>31,564.0</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>31,564.0</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>31,564.0</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>-2,964.0</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>-9.39</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -2705,32 +3205,50 @@
       <c r="D25" t="n">
         <v>0.965</v>
       </c>
-      <c r="E25" t="n">
-        <v>16800</v>
-      </c>
-      <c r="F25" t="n">
-        <v>18564</v>
-      </c>
-      <c r="G25" t="n">
-        <v>16212</v>
-      </c>
-      <c r="H25" t="n">
-        <v>16212</v>
-      </c>
-      <c r="I25" t="n">
-        <v>16212</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0.2887658227848101</v>
-      </c>
-      <c r="L25" t="n">
-        <v>2352</v>
-      </c>
-      <c r="M25" t="n">
-        <v>14.5078</v>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>16,800.0</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>18,564.0</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>16,212.0</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>16,212.0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>16,212.0</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>2,352.0</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>14.51</t>
+        </is>
       </c>
     </row>
     <row r="26">
@@ -2750,32 +3268,50 @@
       <c r="D26" t="n">
         <v>0</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>30000</v>
-      </c>
-      <c r="H26" t="n">
-        <v>30000</v>
-      </c>
-      <c r="I26" t="n">
-        <v>-59.91999999999825</v>
-      </c>
-      <c r="J26" t="n">
-        <v>30059.92</v>
-      </c>
-      <c r="K26" t="n">
-        <v>24.35763422222222</v>
-      </c>
-      <c r="L26" t="n">
-        <v>59.92</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0.1997</v>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>30,000.0</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>30,000.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>-59.92</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>30,059.92</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>24.36</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>59.92</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>0.2</t>
+        </is>
       </c>
     </row>
   </sheetData>
